--- a/input/HOT3000/1/Std140_CE_b_Output.xlsx
+++ b/input/HOT3000/1/Std140_CE_b_Output.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\ESP-r-HOT3000\x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\HOT3000\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D9E3A7-0C8E-433D-A4FD-7A441C3A5EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93856785-9DCE-492B-AB3C-D7774AFFA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24945" yWindow="2670" windowWidth="30675" windowHeight="17970" xr2:uid="{862D5ACE-16EA-490A-A4B9-A79E8123E828}"/>
+    <workbookView xWindow="4050" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{862D5ACE-16EA-490A-A4B9-A79E8123E828}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
   </definedNames>
@@ -242,12 +239,6 @@
     <t xml:space="preserve">   A n n u a l   H o u r l y   I n t e g r a t e d   M a x i m a   C o n s u m p t i o n s   a n d   L o a d s</t>
   </si>
   <si>
-    <t xml:space="preserve">         E300 Only, Maxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E 3 0 0   O n l y</t>
-  </si>
-  <si>
     <t>Zone</t>
   </si>
   <si>
@@ -339,78 +330,6 @@
   </si>
   <si>
     <t>kg/kg</t>
-  </si>
-  <si>
-    <t>E300</t>
-  </si>
-  <si>
-    <t>E310</t>
-  </si>
-  <si>
-    <t>E320</t>
-  </si>
-  <si>
-    <t>E330</t>
-  </si>
-  <si>
-    <t>E340</t>
-  </si>
-  <si>
-    <t>E350</t>
-  </si>
-  <si>
-    <t>E360</t>
-  </si>
-  <si>
-    <t>E400</t>
-  </si>
-  <si>
-    <t>E410</t>
-  </si>
-  <si>
-    <t>E420</t>
-  </si>
-  <si>
-    <t>E430</t>
-  </si>
-  <si>
-    <t>E440</t>
-  </si>
-  <si>
-    <t>E500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E500 </t>
-  </si>
-  <si>
-    <t>E500 May-Sep</t>
-  </si>
-  <si>
-    <t>E510</t>
-  </si>
-  <si>
-    <t>E510 May-Sep</t>
-  </si>
-  <si>
-    <t>E520</t>
-  </si>
-  <si>
-    <t>E522</t>
-  </si>
-  <si>
-    <t>E525</t>
-  </si>
-  <si>
-    <t>E530</t>
-  </si>
-  <si>
-    <t>E540</t>
-  </si>
-  <si>
-    <t>E545</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   E 3 0 0</t>
   </si>
   <si>
     <t xml:space="preserve">             A n n u a l   H o u r l y   I n t e g r a t e d   M a x i m a   a n d   M i n i m a   -   C O P 2   a n d   Z o n e</t>
@@ -551,9 +470,6 @@
     <t>24</t>
   </si>
   <si>
-    <t xml:space="preserve">      C a s e   E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Evaporator Coil Load</t>
   </si>
   <si>
@@ -569,7 +485,88 @@
     <t>June 25</t>
   </si>
   <si>
-    <t xml:space="preserve">      C a s e   E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+    <t>CE300</t>
+  </si>
+  <si>
+    <t>CE310</t>
+  </si>
+  <si>
+    <t>CE320</t>
+  </si>
+  <si>
+    <t>CE330</t>
+  </si>
+  <si>
+    <t>CE340</t>
+  </si>
+  <si>
+    <t>CE350</t>
+  </si>
+  <si>
+    <t>CE360</t>
+  </si>
+  <si>
+    <t>CE400</t>
+  </si>
+  <si>
+    <t>CE410</t>
+  </si>
+  <si>
+    <t>CE420</t>
+  </si>
+  <si>
+    <t>CE430</t>
+  </si>
+  <si>
+    <t>CE440</t>
+  </si>
+  <si>
+    <t>CE500</t>
+  </si>
+  <si>
+    <t>CE500 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE510 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE520</t>
+  </si>
+  <si>
+    <t>CE522</t>
+  </si>
+  <si>
+    <t>CE525</t>
+  </si>
+  <si>
+    <t>CE530</t>
+  </si>
+  <si>
+    <t>CE540</t>
+  </si>
+  <si>
+    <t>CE545</t>
+  </si>
+  <si>
+    <t>C E 3 0 0   O n l y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE500 </t>
+  </si>
+  <si>
+    <t>CE510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CE300 Only, Maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   C E 3 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
   </si>
 </sst>
 </file>
@@ -926,15 +923,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -948,6 +936,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,116 +960,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Read Me"/>
-      <sheetName val="Adding Results"/>
-      <sheetName val="YourData"/>
-      <sheetName val="Title Page"/>
-      <sheetName val="Program List"/>
-      <sheetName val="Tables List"/>
-      <sheetName val="Figures List"/>
-      <sheetName val="Table-Q"/>
-      <sheetName val="Table-R"/>
-      <sheetName val="Table-S"/>
-      <sheetName val="Table-T"/>
-      <sheetName val="Fig B16.5.2-1 Qtot"/>
-      <sheetName val="Fig B16.5.2-2 dQtot"/>
-      <sheetName val="Fig B16.5.2-3 Ptot"/>
-      <sheetName val="Fig B16.5.2-4 dPtot"/>
-      <sheetName val="Fig B16.5.2-5 Qcomp"/>
-      <sheetName val="Fig B16.5.2-6 dQcomp"/>
-      <sheetName val="Fig B16.5.2-7 Qidfan"/>
-      <sheetName val="Fig B16.5.2-8 dQidfan"/>
-      <sheetName val="Fig B16.5.2-9 Qodfan"/>
-      <sheetName val="Fig B16.5.2-10 dQodfan"/>
-      <sheetName val="Fig B16.5.2-11 QCtot"/>
-      <sheetName val="Fig B16.5.2-12 PCtot"/>
-      <sheetName val="Fig B16.5.2-13 dPCtot"/>
-      <sheetName val="Fig B16.5.2-14 QCSens"/>
-      <sheetName val="Fig B16.5.2-15 dQCsens"/>
-      <sheetName val="Fig B16.5.2-16 PCSens"/>
-      <sheetName val="Fig B16.5.2-17 QClat"/>
-      <sheetName val="Fig B16.5.2-18 dQClat"/>
-      <sheetName val="Fig B16.5.2-19 PClat"/>
-      <sheetName val="Fig B16.5.2-20 dPClat"/>
-      <sheetName val="Fig B16.5.2-21 COP2"/>
-      <sheetName val="Fig B16.5.2-22 dCOP2"/>
-      <sheetName val="Fig B16.5.2-23 MxCOP2"/>
-      <sheetName val="Fig B16.5.2-24 dMxCOP2"/>
-      <sheetName val="Fig B16.5.2-25 MnCOP2"/>
-      <sheetName val="Fig B16.5.2-26 dMnCOP2"/>
-      <sheetName val="Fig B16.5.2-27 IDB"/>
-      <sheetName val="Fig B16.5.2-28 dIDB"/>
-      <sheetName val="Fig B16.5.2-29 MxIDB"/>
-      <sheetName val="Fig B16.5.2-30 dMxIDB"/>
-      <sheetName val="Fig B16.5.2-31 MnIDB"/>
-      <sheetName val="Fig B16.5.2-32 Humrat"/>
-      <sheetName val="Fig B16.5.2-33 dHumrat"/>
-      <sheetName val="Fig B16.5.2-34 MxHum"/>
-      <sheetName val="Fig B16.5.2-35 dMxHumrat"/>
-      <sheetName val="Fig B16.5.2-36 MnHum"/>
-      <sheetName val="Fig B16.5.2-37 RelHum"/>
-      <sheetName val="Fig B16.5.2-38 dRelHum"/>
-      <sheetName val="Fig B16.5.2-39 MxRelHum"/>
-      <sheetName val="Fig B16.5.2-40 dMxRelHum"/>
-      <sheetName val="Fig B16.5.2-41 MnRelHum"/>
-      <sheetName val="Fig B16.5.2-42 Qf(ODB)"/>
-      <sheetName val="Fig B16.5.2-43 QCf(ODB)"/>
-      <sheetName val="Fig B16.5.2-44 COP2f(ODB)"/>
-      <sheetName val="Fig B16.5.2-45 Humratf(ODB)"/>
-      <sheetName val="Fig B16.5.2-46 HrQ"/>
-      <sheetName val="Fig B16.5.2-47 HrQC"/>
-      <sheetName val="Fig B16.5.2-48 HrCOP2"/>
-      <sheetName val="Fig B16.5.2-49 HrHum"/>
-      <sheetName val="Fig B16.5.2-50 HrEDB,EWB"/>
-      <sheetName val="Fig B16.5.2-51 HrODB"/>
-      <sheetName val="Fig B16.5.2-52 HrOHR"/>
-      <sheetName val="A"/>
-      <sheetName val="Qdata"/>
-      <sheetName val="Rdata"/>
-      <sheetName val="Sdata"/>
-      <sheetName val="Tdata"/>
-      <sheetName val="TRNSYS-TUD"/>
-      <sheetName val="DOE22"/>
-      <sheetName val="DOE21E"/>
-      <sheetName val="EnergyPlus1.0"/>
-      <sheetName val="CodyRun"/>
-      <sheetName val="HOT3000"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1397,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:AN130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1730,7 +1617,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1751,7 +1638,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -1779,14 +1666,14 @@
       <c r="B58" s="10"/>
       <c r="I58" s="10"/>
       <c r="K58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="10"/>
@@ -1795,37 +1682,37 @@
       <c r="S58" s="7"/>
       <c r="AB58" s="15"/>
       <c r="AD58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AH58" s="7"/>
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I59" s="10"/>
       <c r="K59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S59" s="15"/>
       <c r="V59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB59" s="15"/>
       <c r="AE59" s="15"/>
@@ -1833,118 +1720,118 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="D60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="K60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="L60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="N60" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB60" s="15"/>
       <c r="AD60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE60" s="15"/>
       <c r="AF60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH60" s="15"/>
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="11"/>
       <c r="B61" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K61" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>95</v>
-      </c>
       <c r="M61" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O61" s="19"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R61" s="19" t="s">
         <v>59</v>
@@ -1953,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U61" s="19" t="s">
         <v>59</v>
@@ -1962,7 +1849,7 @@
         <v>60</v>
       </c>
       <c r="W61" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X61" s="19" t="s">
         <v>59</v>
@@ -1971,7 +1858,7 @@
         <v>60</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA61" s="19" t="s">
         <v>59</v>
@@ -1980,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="AC61" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD61" s="19" t="s">
         <v>59</v>
@@ -1989,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="AF61" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG61" s="19" t="s">
         <v>59</v>
@@ -2000,7 +1887,7 @@
     </row>
     <row r="62" spans="1:34" ht="15.75">
       <c r="A62" s="10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B62" s="21">
         <v>35070</v>
@@ -2043,7 +1930,7 @@
       </c>
       <c r="O62" s="22"/>
       <c r="P62" s="10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="Q62" s="21">
         <v>11548</v>
@@ -2102,7 +1989,7 @@
     </row>
     <row r="63" spans="1:34" ht="15.75">
       <c r="A63" s="10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B63" s="21">
         <v>39608</v>
@@ -2141,7 +2028,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="Q63" s="21">
         <v>12162</v>
@@ -2182,7 +2069,7 @@
     </row>
     <row r="64" spans="1:34" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B64" s="21">
         <v>39457</v>
@@ -2221,7 +2108,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="Q64" s="21">
         <v>12875</v>
@@ -2262,7 +2149,7 @@
     </row>
     <row r="65" spans="1:28" ht="15.75">
       <c r="A65" s="10" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B65" s="21">
         <v>40330</v>
@@ -2301,7 +2188,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="10" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="Q65" s="21">
         <v>13335</v>
@@ -2342,7 +2229,7 @@
     </row>
     <row r="66" spans="1:28" ht="15.75">
       <c r="A66" s="10" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B66" s="21">
         <v>39947</v>
@@ -2381,7 +2268,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="10" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="Q66" s="21">
         <v>13101</v>
@@ -2422,7 +2309,7 @@
     </row>
     <row r="67" spans="1:28" ht="15.75">
       <c r="A67" s="10" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B67" s="21">
         <v>31742</v>
@@ -2461,7 +2348,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="10" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="Q67" s="21">
         <v>11546</v>
@@ -2502,7 +2389,7 @@
     </row>
     <row r="68" spans="1:28" ht="15.75">
       <c r="A68" s="10" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B68" s="21">
         <v>55068</v>
@@ -2541,7 +2428,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="10" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="Q68" s="21">
         <v>12762</v>
@@ -2582,7 +2469,7 @@
     </row>
     <row r="69" spans="1:28" ht="15.75">
       <c r="A69" s="10" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B69" s="21">
         <v>31413</v>
@@ -2621,7 +2508,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="10" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="Q69" s="21">
         <v>11519</v>
@@ -2662,7 +2549,7 @@
     </row>
     <row r="70" spans="1:28" ht="15.75">
       <c r="A70" s="10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B70" s="21">
         <v>31503</v>
@@ -2701,7 +2588,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="Q70" s="21">
         <v>11549</v>
@@ -2742,7 +2629,7 @@
     </row>
     <row r="71" spans="1:28" ht="15.75">
       <c r="A71" s="10" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B71" s="21">
         <v>33208</v>
@@ -2781,7 +2668,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="10" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="Q71" s="21">
         <v>11548</v>
@@ -2822,7 +2709,7 @@
     </row>
     <row r="72" spans="1:28" ht="15.75">
       <c r="A72" s="10" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="B72" s="21">
         <v>31818</v>
@@ -2861,7 +2748,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="10" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="Q72" s="21">
         <v>11548</v>
@@ -2902,7 +2789,7 @@
     </row>
     <row r="73" spans="1:28" ht="15.75">
       <c r="A73" s="10" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B73" s="21">
         <v>33248</v>
@@ -2941,7 +2828,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="10" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="Q73" s="21">
         <v>11461</v>
@@ -2982,7 +2869,7 @@
     </row>
     <row r="74" spans="1:28" ht="15.75">
       <c r="A74" s="10" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B74" s="21">
         <v>23138</v>
@@ -3021,7 +2908,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="Q74" s="21">
         <v>10274</v>
@@ -3062,7 +2949,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B75" s="21">
         <v>18051</v>
@@ -3101,7 +2988,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="Q75" s="21">
         <v>11344</v>
@@ -3142,7 +3029,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B76" s="21">
         <v>35845</v>
@@ -3181,7 +3068,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="Q76" s="21">
         <v>10684</v>
@@ -3222,7 +3109,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B77" s="21">
         <v>25781</v>
@@ -3261,7 +3148,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q77" s="21">
         <v>10747</v>
@@ -3302,7 +3189,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B78" s="21">
         <v>24360</v>
@@ -3341,7 +3228,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="Q78" s="21">
         <v>9585</v>
@@ -3382,7 +3269,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B79" s="21">
         <v>21323</v>
@@ -3421,7 +3308,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="Q79" s="21">
         <v>8089</v>
@@ -3462,7 +3349,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B80" s="21">
         <v>17875</v>
@@ -3501,7 +3388,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="Q80" s="21">
         <v>8985</v>
@@ -3542,7 +3429,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B81" s="21">
         <v>20164</v>
@@ -3581,7 +3468,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="Q81" s="31">
         <v>7471</v>
@@ -3622,7 +3509,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B82" s="31">
         <v>16339</v>
@@ -3667,7 +3554,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -3681,7 +3568,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
@@ -3746,35 +3633,35 @@
     <row r="86" spans="1:40">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H86" s="35"/>
       <c r="K86" s="7"/>
       <c r="L86" s="36" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
       <c r="S86" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="W86" s="10"/>
       <c r="X86" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="AC86" s="10"/>
       <c r="AD86" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AI86" s="10"/>
       <c r="AJ86" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="AN86" s="15"/>
     </row>
@@ -3783,111 +3670,111 @@
         <v>60</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P87" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q87" s="10"/>
       <c r="R87" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="T87" s="10"/>
       <c r="U87" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="W87" s="10"/>
       <c r="X87" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="Z87" s="10"/>
       <c r="AA87" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AC87" s="10"/>
       <c r="AD87" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AF87" s="10"/>
       <c r="AG87" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AI87" s="10"/>
       <c r="AJ87" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AL87" s="10"/>
       <c r="AM87" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AN87" s="15"/>
     </row>
     <row r="88" spans="1:40">
       <c r="A88" s="11"/>
       <c r="B88" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L88" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P88" s="11"/>
       <c r="Q88" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R88" s="19" t="s">
         <v>59</v>
@@ -3896,7 +3783,7 @@
         <v>60</v>
       </c>
       <c r="T88" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U88" s="19" t="s">
         <v>59</v>
@@ -3905,7 +3792,7 @@
         <v>60</v>
       </c>
       <c r="W88" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X88" s="19" t="s">
         <v>59</v>
@@ -3914,7 +3801,7 @@
         <v>60</v>
       </c>
       <c r="Z88" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA88" s="19" t="s">
         <v>59</v>
@@ -3923,7 +3810,7 @@
         <v>60</v>
       </c>
       <c r="AC88" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD88" s="19" t="s">
         <v>59</v>
@@ -3932,7 +3819,7 @@
         <v>60</v>
       </c>
       <c r="AF88" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG88" s="19" t="s">
         <v>59</v>
@@ -3941,7 +3828,7 @@
         <v>60</v>
       </c>
       <c r="AI88" s="18" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="AJ88" s="19" t="s">
         <v>59</v>
@@ -3950,7 +3837,7 @@
         <v>60</v>
       </c>
       <c r="AL88" s="18" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="AM88" s="19" t="s">
         <v>59</v>
@@ -3961,7 +3848,7 @@
     </row>
     <row r="89" spans="1:40" ht="15.75">
       <c r="A89" s="10" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B89" s="39">
         <v>1942.81</v>
@@ -3997,7 +3884,7 @@
         <v>1.1071715500000001E-2</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="Q89" s="21">
         <v>3.88</v>
@@ -4074,7 +3961,7 @@
     </row>
     <row r="90" spans="1:40" ht="15.75">
       <c r="A90" s="10" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B90" s="39">
         <v>1950.53</v>
@@ -4110,7 +3997,7 @@
         <v>1.1431797E-2</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="Q90" s="21">
         <v>4.12</v>
@@ -4187,7 +4074,7 @@
     </row>
     <row r="91" spans="1:40" ht="15.75">
       <c r="A91" s="10" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B91" s="39">
         <v>1902.33</v>
@@ -4223,7 +4110,7 @@
         <v>1.1071715500000001E-2</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="Q91" s="21">
         <v>4.38</v>
@@ -4300,7 +4187,7 @@
     </row>
     <row r="92" spans="1:40" ht="15.75">
       <c r="A92" s="10" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B92" s="39">
         <v>1845.43</v>
@@ -4336,7 +4223,7 @@
         <v>1.1071715500000001E-2</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="Q92" s="21">
         <v>4.05</v>
@@ -4413,7 +4300,7 @@
     </row>
     <row r="93" spans="1:40" ht="15.75">
       <c r="A93" s="10" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B93" s="39">
         <v>1914.46</v>
@@ -4449,7 +4336,7 @@
         <v>1.0155272999999999E-2</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="Q93" s="21">
         <v>3.95</v>
@@ -4526,7 +4413,7 @@
     </row>
     <row r="94" spans="1:40" ht="15.75">
       <c r="A94" s="10" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B94" s="39">
         <v>2506.5700000000002</v>
@@ -4562,7 +4449,7 @@
         <v>1.0970428000000001E-2</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="Q94" s="21">
         <v>3.88</v>
@@ -4639,7 +4526,7 @@
     </row>
     <row r="95" spans="1:40" ht="15.75">
       <c r="A95" s="10" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B95" s="39">
         <v>3170.95</v>
@@ -4675,7 +4562,7 @@
         <v>1.3098754000000001E-2</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="Q95" s="21">
         <v>4.4400000000000004</v>
@@ -4752,7 +4639,7 @@
     </row>
     <row r="96" spans="1:40" ht="15.75">
       <c r="A96" s="10" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B96" s="39">
         <v>3433.96</v>
@@ -4788,7 +4675,7 @@
         <v>1.1039306E-2</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="Q96" s="21">
         <v>4.05</v>
@@ -4865,7 +4752,7 @@
     </row>
     <row r="97" spans="1:40" ht="15.75">
       <c r="A97" s="10" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B97" s="39">
         <v>4489.1499999999996</v>
@@ -4901,7 +4788,7 @@
         <v>1.1956723000000001E-2</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="Q97" s="21">
         <v>3.84</v>
@@ -4978,7 +4865,7 @@
     </row>
     <row r="98" spans="1:40" ht="15.75">
       <c r="A98" s="10" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B98" s="39">
         <v>4853.28</v>
@@ -5014,7 +4901,7 @@
         <v>1.2719301000000001E-2</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="Q98" s="21">
         <v>3.94</v>
@@ -5091,7 +4978,7 @@
     </row>
     <row r="99" spans="1:40" ht="15.75">
       <c r="A99" s="10" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B99" s="39">
         <v>5164.22</v>
@@ -5127,7 +5014,7 @@
         <v>1.4761318000000001E-2</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="Q99" s="21">
         <v>3.93</v>
@@ -5204,7 +5091,7 @@
     </row>
     <row r="100" spans="1:40" ht="15.75">
       <c r="A100" s="10" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B100" s="39">
         <v>5004.96</v>
@@ -5240,7 +5127,7 @@
         <v>1.3210559E-2</v>
       </c>
       <c r="P100" s="10" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="Q100" s="21">
         <v>3.81</v>
@@ -5317,7 +5204,7 @@
     </row>
     <row r="101" spans="1:40" ht="15.75">
       <c r="A101" s="10" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B101" s="39">
         <v>6454.59</v>
@@ -5353,7 +5240,7 @@
         <v>1.1293012E-2</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="Q101" s="21">
         <v>4.1399999999999997</v>
@@ -5430,7 +5317,7 @@
     </row>
     <row r="102" spans="1:40" ht="15.75">
       <c r="A102" s="10" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B102" s="39">
         <v>6503.4</v>
@@ -5466,7 +5353,7 @@
         <v>1.1691814E-2</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="Q102" s="21">
         <v>4.53</v>
@@ -5579,7 +5466,7 @@
         <v>1.2340472999999999E-2</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="Q103" s="21">
         <v>3.84</v>
@@ -5656,7 +5543,7 @@
     </row>
     <row r="104" spans="1:40" ht="15.75">
       <c r="A104" s="10" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B104" s="39">
         <v>8133.59</v>
@@ -5692,7 +5579,7 @@
         <v>1.4187589E-2</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q104" s="21">
         <v>4</v>
@@ -5769,7 +5656,7 @@
     </row>
     <row r="105" spans="1:40" ht="15.75">
       <c r="A105" s="10" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B105" s="39">
         <v>5211.79</v>
@@ -5805,7 +5692,7 @@
         <v>1.4683774E-2</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="Q105" s="41">
         <v>4.4000000000000004</v>
@@ -5882,7 +5769,7 @@
     </row>
     <row r="106" spans="1:40" ht="15.75">
       <c r="A106" s="10" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B106" s="39">
         <v>5122.29</v>
@@ -5918,7 +5805,7 @@
         <v>1.563434E-2</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="Q106" s="42">
         <v>3.88</v>
@@ -5995,7 +5882,7 @@
     </row>
     <row r="107" spans="1:40" ht="15.75">
       <c r="A107" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B107" s="39">
         <v>4831.72</v>
@@ -6031,7 +5918,7 @@
         <v>1.4492502000000001E-2</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="Q107" s="42">
         <v>3.69</v>
@@ -6108,7 +5995,7 @@
     </row>
     <row r="108" spans="1:40">
       <c r="A108" s="10" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B108" s="39">
         <v>4874.8500000000004</v>
@@ -6144,7 +6031,7 @@
         <v>1.6823952999999999E-2</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="Q108" s="45">
         <v>4.17</v>
@@ -6221,7 +6108,7 @@
     </row>
     <row r="109" spans="1:40">
       <c r="A109" s="10" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B109" s="39">
         <v>3935.62</v>
@@ -6257,12 +6144,12 @@
         <v>1.6823952999999999E-2</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:40">
       <c r="A110" s="10" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B110" s="39">
         <v>3844.33</v>
@@ -6300,7 +6187,7 @@
     </row>
     <row r="111" spans="1:40">
       <c r="A111" s="10" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B111" s="39">
         <v>3807.46</v>
@@ -6338,7 +6225,7 @@
     </row>
     <row r="112" spans="1:40">
       <c r="A112" s="11" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B112" s="39">
         <v>3664.17</v>
@@ -6423,7 +6310,7 @@
     <row r="115" spans="1:40" ht="15.75">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -6494,17 +6381,17 @@
     </row>
     <row r="117" spans="1:40">
       <c r="A117" s="10"/>
-      <c r="B117" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="51"/>
+      <c r="B117" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="60"/>
       <c r="F117" s="10" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J117" s="35"/>
       <c r="K117" s="5"/>
@@ -6512,79 +6399,79 @@
     </row>
     <row r="118" spans="1:40">
       <c r="A118" s="10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B118" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="F118" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F118" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I118" s="17" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="J118" s="37" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:40">
       <c r="A119" s="11"/>
       <c r="B119" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="J119" s="38"/>
       <c r="K119" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L119" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="15.75">
-      <c r="A120" s="52" t="s">
-        <v>170</v>
+      <c r="A120" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="B120" s="21">
         <v>4073</v>
@@ -6610,19 +6497,19 @@
       <c r="I120" s="21">
         <v>1.6E-2</v>
       </c>
-      <c r="J120" s="53">
+      <c r="J120" s="50">
         <v>3.85</v>
       </c>
-      <c r="K120" s="54">
+      <c r="K120" s="51">
         <v>16.96</v>
       </c>
-      <c r="L120" s="55">
+      <c r="L120" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="15.75">
-      <c r="A121" s="56" t="s">
-        <v>171</v>
+      <c r="A121" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="B121" s="31">
         <v>5230</v>
@@ -6633,7 +6520,7 @@
       <c r="D121" s="33">
         <v>424</v>
       </c>
-      <c r="E121" s="57">
+      <c r="E121" s="54">
         <v>566</v>
       </c>
       <c r="F121" s="31">
@@ -6648,13 +6535,13 @@
       <c r="I121" s="31">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J121" s="58">
+      <c r="J121" s="55">
         <v>2.94</v>
       </c>
-      <c r="K121" s="59">
+      <c r="K121" s="56">
         <v>29.5</v>
       </c>
-      <c r="L121" s="60">
+      <c r="L121" s="57">
         <v>25</v>
       </c>
     </row>
@@ -6690,17 +6577,17 @@
     </row>
     <row r="126" spans="1:40">
       <c r="A126" s="10"/>
-      <c r="B126" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="51"/>
+      <c r="B126" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="60"/>
       <c r="F126" s="10" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J126" s="35"/>
       <c r="K126" s="5"/>
@@ -6708,79 +6595,79 @@
     </row>
     <row r="127" spans="1:40">
       <c r="A127" s="10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B127" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="F127" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F127" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I127" s="17" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="J127" s="37" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L127" s="14" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:40">
       <c r="A128" s="11"/>
       <c r="B128" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="J128" s="38"/>
       <c r="K128" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L128" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75">
-      <c r="A129" s="52" t="s">
-        <v>170</v>
+      <c r="A129" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="B129" s="21">
         <v>3144</v>
@@ -6806,19 +6693,19 @@
       <c r="I129" s="21">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="J129" s="53">
+      <c r="J129" s="50">
         <v>3.59</v>
       </c>
-      <c r="K129" s="54">
+      <c r="K129" s="51">
         <v>16.96</v>
       </c>
-      <c r="L129" s="55">
+      <c r="L129" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.75">
-      <c r="A130" s="56" t="s">
-        <v>171</v>
+      <c r="A130" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="B130" s="31">
         <v>4043</v>
@@ -6829,7 +6716,7 @@
       <c r="D130" s="33">
         <v>340</v>
       </c>
-      <c r="E130" s="57">
+      <c r="E130" s="54">
         <v>454</v>
       </c>
       <c r="F130" s="31">
@@ -6844,13 +6731,13 @@
       <c r="I130" s="31">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="J130" s="58">
+      <c r="J130" s="55">
         <v>2.74</v>
       </c>
-      <c r="K130" s="59">
+      <c r="K130" s="56">
         <v>29.5</v>
       </c>
-      <c r="L130" s="60">
+      <c r="L130" s="57">
         <v>25</v>
       </c>
     </row>

--- a/input/HOT3000/1/Std140_CE_b_Output.xlsx
+++ b/input/HOT3000/1/Std140_CE_b_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\HOT3000\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93856785-9DCE-492B-AB3C-D7774AFFA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E261E815-6C0B-444F-9538-0A0FDF877498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4050" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{862D5ACE-16EA-490A-A4B9-A79E8123E828}"/>
   </bookViews>
@@ -524,12 +524,6 @@
     <t>CE500</t>
   </si>
   <si>
-    <t>CE500 May-SCEp</t>
-  </si>
-  <si>
-    <t>CE510 May-SCEp</t>
-  </si>
-  <si>
     <t>CE520</t>
   </si>
   <si>
@@ -567,6 +561,12 @@
   </si>
   <si>
     <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t>CE500 May-Sep</t>
+  </si>
+  <si>
+    <t>CE510 May-Sep</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:AN130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O120" sqref="O120"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1617,7 +1617,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1638,7 +1638,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -2908,7 +2908,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q74" s="21">
         <v>10274</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B75" s="21">
         <v>18051</v>
@@ -2988,7 +2988,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q75" s="21">
         <v>11344</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B76" s="21">
         <v>35845</v>
@@ -3068,7 +3068,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q76" s="21">
         <v>10684</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" s="21">
         <v>25781</v>
@@ -3148,7 +3148,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q77" s="21">
         <v>10747</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="21">
         <v>24360</v>
@@ -3228,7 +3228,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q78" s="21">
         <v>9585</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B79" s="21">
         <v>21323</v>
@@ -3308,7 +3308,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q79" s="21">
         <v>8089</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B80" s="21">
         <v>17875</v>
@@ -3388,7 +3388,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q80" s="21">
         <v>8985</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" s="21">
         <v>20164</v>
@@ -3468,7 +3468,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q81" s="31">
         <v>7471</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="31">
         <v>16339</v>
@@ -3554,7 +3554,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -5240,7 +5240,7 @@
         <v>1.1293012E-2</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q101" s="21">
         <v>4.1399999999999997</v>
@@ -5353,7 +5353,7 @@
         <v>1.1691814E-2</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q102" s="21">
         <v>4.53</v>
@@ -5466,7 +5466,7 @@
         <v>1.2340472999999999E-2</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q103" s="21">
         <v>3.84</v>
@@ -5579,7 +5579,7 @@
         <v>1.4187589E-2</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q104" s="21">
         <v>4</v>
@@ -5692,7 +5692,7 @@
         <v>1.4683774E-2</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q105" s="41">
         <v>4.4000000000000004</v>
@@ -5805,7 +5805,7 @@
         <v>1.563434E-2</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q106" s="42">
         <v>3.88</v>
@@ -5918,7 +5918,7 @@
         <v>1.4492502000000001E-2</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q107" s="42">
         <v>3.69</v>
@@ -6031,7 +6031,7 @@
         <v>1.6823952999999999E-2</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q108" s="45">
         <v>4.17</v>
@@ -6310,7 +6310,7 @@
     <row r="115" spans="1:40" ht="15.75">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -6548,7 +6548,7 @@
     <row r="124" spans="1:40">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
